--- a/token_data_map.xlsx
+++ b/token_data_map.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thesis\NLP\Git_Hub\POS_NER-dataset-builder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A547C1-947C-41E8-A8D1-C2C6B72438DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>ner</t>
-  </si>
-  <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>পিটার</t>
-  </si>
-  <si>
-    <t>ব্ল্যাকবার্ন</t>
-  </si>
-  <si>
-    <t>ব্রাসেল্স</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>১৯৯৬-০৮-২২</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,70 +420,335 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="12.765625" customWidth="1"/>
-    <col min="2" max="2" width="10.07421875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>token</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ner</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>পিটার</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ব্ল্যাকবার্ন</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ব্রাসেল্স</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>১৯৯৬-০৮-২২</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>'</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>রাবিনোভিচ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>রাষ্ট্রদূত</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>হিসেবে</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>তার</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>মেয়াদ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>শেষ</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>করছেন</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>।</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/token_data_map.xlsx
+++ b/token_data_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,15 +621,11 @@
           <t>রাবিনোভিচ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -638,15 +634,11 @@
           <t>রাষ্ট্রদূত</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -655,15 +647,11 @@
           <t>হিসেবে</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -672,15 +660,11 @@
           <t>তার</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -689,15 +673,11 @@
           <t>মেয়াদ</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -706,15 +686,11 @@
           <t>শেষ</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="21">
@@ -723,15 +699,11 @@
           <t>করছেন</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -740,14 +712,826 @@
           <t>।</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ইউরোপীয়</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>কমিশন</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>বৃহস্পতিবার</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>7</t>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>বলেছে</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>যে</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>তারা</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>জার্মানদের</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>পরামর্শের</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>সাথে</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>একমত</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>না</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>যতক্ষণ</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>না</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>বিজ্ঞানীরা</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>নিশ্চিত</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>যে</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>#11</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>#11</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>পাগল</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>গরুর</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>#12</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>#12</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>রোগ</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ভেড়ার</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>#13</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>#13</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>মধ্যে</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>#14</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>সংক্রমিত</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>#15</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>#15</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>হতে</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>পারে</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ইউরোপীয়</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>কমিশন</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>বৃহস্পতিবার</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>বলেছে</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>যে</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>তারা</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>জার্মানদের</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>পরামর্শের</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>সাথে</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>একমত</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>না</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>যতক্ষণ</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>না</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>বিজ্ঞানীরা</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>নিশ্চিত</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>যে</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>#11</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>#11</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>পাগল</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>গরুর</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>#12</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>#12</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>রোগ</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ভেড়ার</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>#13</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>#13</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>মধ্যে</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>#14</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>সংক্রমিত</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>#15</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>#15</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>হতে</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>পারে</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>20</t>
         </is>
       </c>
     </row>

--- a/token_data_map.xlsx
+++ b/token_data_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,15 +725,11 @@
           <t>ইউরোপীয়</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -742,15 +738,11 @@
           <t>কমিশন</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -759,15 +751,11 @@
           <t>বৃহস্পতিবার</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -776,15 +764,11 @@
           <t>বলেছে</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -793,15 +777,11 @@
           <t>যে</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>#1</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>#1</t>
-        </is>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -810,32 +790,24 @@
           <t>তারা</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>#2</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>#2</t>
-        </is>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>জার্মানদের</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>#3</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>#3</t>
-        </is>
+          <t>জার্মান</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -844,15 +816,11 @@
           <t>পরামর্শের</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>#4</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>#4</t>
-        </is>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -861,650 +829,498 @@
           <t>সাথে</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>একমত</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>#5</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>#5</t>
-        </is>
+          <t>দ্বিমত</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>না</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>#6</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>#6</t>
-        </is>
+          <t>যতক্ষণ</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>যতক্ষণ</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>#7</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>#7</t>
-        </is>
+          <t>না</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>না</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>#8</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>#8</t>
-        </is>
+          <t>বিজ্ঞানীরা</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>বিজ্ঞানীরা</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+          <t>নিশ্চিত</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>নিশ্চিত</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>#9</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>#9</t>
-        </is>
+          <t>যে</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>যে</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>#11</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>#11</t>
-        </is>
+          <t>পাগল</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>পাগল</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+          <t>গরুর</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>গরুর</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>#12</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>#12</t>
-        </is>
+          <t>রোগ</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>রোগ</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+          <t>ভেড়ার</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ভেড়ার</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>#13</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>#13</t>
-        </is>
+          <t>মধ্যে</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>মধ্যে</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>#14</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>#14</t>
-        </is>
+          <t>সংক্রমিত</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>সংক্রমিত</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>#15</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>#15</t>
-        </is>
+          <t>হতে</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>হতে</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+          <t>পারে</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>পারে</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+          <t>স্পেনের</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ইউরোপীয়</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+          <t>কৃষিমন্ত্রী</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>কমিশন</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+          <t>লয়োলা</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>বৃহস্পতিবার</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+          <t>ডি</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>বলেছে</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+          <t>প্যালাসো</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>যে</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>#1</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>#1</t>
-        </is>
+          <t>এর</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>তারা</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>#2</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>#2</t>
-        </is>
+          <t>আগে</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>জার্মানদের</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>#3</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>#3</t>
-        </is>
+          <t>ইউনিয়নের</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>পরামর্শের</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>#4</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>#4</t>
-        </is>
+          <t>কৃষিমন্ত্রীদের</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>সাথে</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+          <t>এক</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>একমত</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>#5</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>#5</t>
-        </is>
+          <t>বৈঠকে</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>না</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>#6</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>#6</t>
-        </is>
+          <t>ফিশলারকে</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>যতক্ষণ</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>#7</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>#7</t>
-        </is>
+          <t>``</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>না</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>#8</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>#8</t>
-        </is>
+          <t>বিপজ্জনক</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>বিজ্ঞানীরা</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+          <t>সাধারণীকরণের</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>নিশ্চিত</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>#9</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>#9</t>
-        </is>
+          <t>''</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>যে</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>#11</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>#11</t>
-        </is>
+          <t>মাধ্যমে</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>পাগল</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+          <t>অন্যায়ভাবে</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>গরুর</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>#12</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>#12</t>
-        </is>
+          <t>আতঙ্ক</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>রোগ</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+          <t>সৃষ্টি</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ভেড়ার</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>#13</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>#13</t>
-        </is>
+          <t>করার</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>মধ্যে</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>#14</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>#14</t>
-        </is>
+          <t>অভিযোগ</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>সংক্রমিত</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>#15</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>#15</t>
-        </is>
+          <t>এনেছিলেন</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>হতে</t>
+          <t>স্থলাভিষিক্ত</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1514,14 +1330,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>পারে</t>
+          <t>হবেন</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1531,7 +1347,194 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>মিশরের</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>সাবেক</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ইসরায়েলি</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>দূত</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>এবং</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ডানপন্থী</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>লিকুদ</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>পার্টির</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>রাজনীতিবিদ</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>এলিয়াহু</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>বেন-এলসার</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
     </row>

--- a/token_data_map.xlsx
+++ b/token_data_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1323,15 +1323,11 @@
           <t>স্থলাভিষিক্ত</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -1340,15 +1336,11 @@
           <t>হবেন</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="71">
@@ -1357,15 +1349,11 @@
           <t>মিশরের</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="72">
@@ -1374,15 +1362,11 @@
           <t>সাবেক</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -1391,15 +1375,11 @@
           <t>ইসরায়েলি</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="B73" t="n">
+        <v>5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -1408,15 +1388,11 @@
           <t>দূত</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="75">
@@ -1425,15 +1401,11 @@
           <t>এবং</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -1442,15 +1414,11 @@
           <t>ডানপন্থী</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -1459,15 +1427,11 @@
           <t>লিকুদ</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -1476,15 +1440,11 @@
           <t>পার্টির</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="79">
@@ -1493,15 +1453,11 @@
           <t>রাজনীতিবিদ</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -1510,15 +1466,11 @@
           <t>এলিয়াহু</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="81">
@@ -1527,14 +1479,344 @@
           <t>বেন-এলসার</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>৩৫,৫৬৩</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>টা</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>রেজিস্ট্রেশন</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>বা</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>১১.৭</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>শতাংশ</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>সহ</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ফোর্ড</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ছিল</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>তৃতীয়</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>গত</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>বছরের</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>জুলাইয়ের</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>তুলনায়</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>১৯৯৬</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>সালের</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>জুলাই</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>মাসে</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>শুধুমাত্র</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>সিট</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>পোর্শের</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>কম</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>17</t>
         </is>
       </c>
     </row>

--- a/token_data_map.xlsx
+++ b/token_data_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1622,15 +1622,11 @@
           <t>গত</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="93">
@@ -1639,15 +1635,11 @@
           <t>বছরের</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="94">
@@ -1656,15 +1648,11 @@
           <t>জুলাইয়ের</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="95">
@@ -1673,15 +1661,11 @@
           <t>তুলনায়</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="96">
@@ -1690,15 +1674,11 @@
           <t>১৯৯৬</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -1707,15 +1687,11 @@
           <t>সালের</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -1724,15 +1700,11 @@
           <t>জুলাই</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -1741,15 +1713,11 @@
           <t>মাসে</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="100">
@@ -1758,15 +1726,11 @@
           <t>শুধুমাত্র</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="101">
@@ -1775,15 +1739,11 @@
           <t>সিট</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="102">
@@ -1792,15 +1752,11 @@
           <t>পোর্শের</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="103">
@@ -1809,14 +1765,8240 @@
           <t>কম</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ফ্রান্স</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ব্রিটেন</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+      <c r="C106" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ফিশলারের</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>প্রস্তাবকে</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>সমর্থন</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>করেছিল</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>বৈজ্ঞানিক</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>পশুচিকিৎসা</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ও</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>বহুচিকিৎসা</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>কমিটি</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>আগামী</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>মাসের</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>প্রথম</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>দিকে</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>বিষয়টি</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>পুনরায়</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>পরীক্ষা</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>করে</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ঊর্ধ্বতন</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>পশুচিকিৎসা</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>কর্মকর্তাদের</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>কাছে</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>সুপারিশ</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>করবে</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ইউনিয়ন</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>জার্মানদের</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ব্রিটিশ</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>মেষশাবক</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>বর্জনের</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>আহ্বান</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>প্রত্যাখ্যান</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>করেছে</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>কিন্তু</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ফিসলার</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ইইউ</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+      <c r="C140" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>স্থায়ী</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ভেটেরিনারি</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>জাতীয়</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>পশু</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>স্বাস্থ্য</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>কর্মকর্তারা</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>এই</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ধরনের</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>পদক্ষেপ</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ন্যায্য</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>কিনা</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>তা</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>নিয়ে</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>প্রশ্ন</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>পর</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>প্রস্তাব</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>পুনর্বিবেচনা</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>করতে</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>সম্মত</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>হন</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>কারণ</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>মানব</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>স্বাস্থ্যের</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>জন্য</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>সামান্য</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ঝুঁকি</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ড্যানিয়েল</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ভ্যাসেক</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>চেক</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>5</v>
+      </c>
+      <c r="C169" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>প্রজাতন্ত্র</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>6</v>
+      </c>
+      <c r="C170" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>১৩</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>জেসন</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>স্টলটেনবার্গকে</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>হারিয়েছেন</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>৬-৩</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>৬-৪</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>পেত্র</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>কোর্দা</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>১২-</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ফ্রান্সিসকো</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ক্ল্যাভেট</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>স্পেন</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>কে</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>পরাজিত</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>করেছেন</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>৬-১</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>৬-২</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>মরোক্কো</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>৫-৭</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>৩-০</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>অবসরপ্রাপ্ত</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>কারোল</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>কুসেরা</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+      <c r="C194" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>স্লোভাকিয়া</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>হিশাম</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>আরাজি</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>মরোকো</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>৭-৬</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>৭-৪</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>দিয়ে</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>৭-৫</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>লন্ডন</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>5</v>
+      </c>
+      <c r="C203" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>কেনি</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ডালগ্লিশ</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ছেড়ে</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>যাওয়ার</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>বিষয়ে</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+      <c r="C208" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>দুঃখের</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>কথা</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>বলেছেন</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ক্লাবটি</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>তিনি</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>১৯৯৪-৯৫</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>সালে</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ইংলিশ</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>7</v>
+      </c>
+      <c r="C216" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>প্রিমিয়ার</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>লিগের</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>শিরোপা</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>জিতিয়ে</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ছিলেন</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>বুধবার</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ঘোষণা</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>করেন</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>পারস্পরিক</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>সম্মতিতে</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>বিচ্ছেদ</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ম্যানেজার</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>স্বীকার</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>সাড়ে</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>তিন</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ব্ল্যাকবার্নকে</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>3</v>
+      </c>
+      <c r="C232" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>দ্বিতীয়</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>বিভাগ</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>থেকে</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C235" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>লীগে</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>আসার</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>পরেও</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>সরে</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0</v>
+      </c>
+      <c r="C239" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>দুঃখিত</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ছুটির</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>সময়কালীন</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>বাড়ি</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>একটি</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>স্থানীয়</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>সংবাদপত্রে</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ফোন</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>সময়</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>বলেন</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+      <c r="C249" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>আমরা</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>একই</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>মতামত</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>পোষণ</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>করেছি</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>যদিও</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>আমার</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>চেয়ে</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>একটু</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+      <c r="C258" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>সিদ্ধান্তে</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>পৌঁছেছে</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>আরও</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>বলেছিলেন</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>যদি</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>কেউ</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0</v>
+      </c>
+      <c r="C264" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>আমাকে</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>জিজ্ঞেস</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>করত</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>0</v>
+      </c>
+      <c r="C267" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>হলে</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>আমি</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+      <c r="C269" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>কখনো</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0</v>
+      </c>
+      <c r="C270" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>মুখ</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0</v>
+      </c>
+      <c r="C271" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>খুলতাম</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+      <c r="C272" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>সোমবার</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>0</v>
+      </c>
+      <c r="C273" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>ট্যাপ</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>বিক্রি</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>শুরু</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0</v>
+      </c>
+      <c r="C276" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>হয়েছে</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0</v>
+      </c>
+      <c r="C277" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>পরবর্তী</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0</v>
+      </c>
+      <c r="C278" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>নির্দেশ</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>দেয়া</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>পর্যন্ত</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+      <c r="C281" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>প্রতিদিন</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+      <c r="C282" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>সকাল</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0</v>
+      </c>
+      <c r="C283" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>৭.০০</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+      <c r="C284" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>১৫.০০</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+      <c r="C285" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>পর্যন্ত</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>চলবে</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>বাণিজ্য</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>বন্ধের</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>মন্ত্রণালয়</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>নতুন</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+      <c r="C291" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>বন্ড</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0</v>
+      </c>
+      <c r="C292" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>২.৩</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+      <c r="C293" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>বিলিয়ন</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>গিল্ডার</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>0</v>
+      </c>
+      <c r="C295" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>সংগ্রহ</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0</v>
+      </c>
+      <c r="C296" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+      <c r="C297" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>আমস্টারডাম</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>5</v>
+      </c>
+      <c r="C298" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>নিউজরুম</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>+৩১</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>২০</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>৫০৪</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+      <c r="C302" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>৫০০০</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+      <c r="C303" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>কৃষি</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
+      <c r="C304" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ভোক্তাদের</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0</v>
+      </c>
+      <c r="C305" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>মেষের</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
+      <c r="C306" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>মাংস</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0</v>
+      </c>
+      <c r="C307" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>এড়িয়ে</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0</v>
+      </c>
+      <c r="C308" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>চলার</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
+      <c r="C309" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>পরামর্শ</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>দিয়েছে</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>বন</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>5</v>
+      </c>
+      <c r="C312" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>জার্মানির</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>5</v>
+      </c>
+      <c r="C313" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>ভোক্তারা</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0</v>
+      </c>
+      <c r="C314" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>যেন</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>খাওয়া</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0</v>
+      </c>
+      <c r="C316" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>চলে</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0</v>
+      </c>
+      <c r="C317" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>পশুদের</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+      <c r="C318" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>থাওরা</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>3</v>
+      </c>
+      <c r="C319" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ইরাকের</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>5</v>
+      </c>
+      <c r="C320" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>প্রেসিডেন্ট</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>0</v>
+      </c>
+      <c r="C321" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>সাদ্দাম</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+      <c r="C322" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>হোসেন</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>2</v>
+      </c>
+      <c r="C323" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>রাশিয়ার</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>7</v>
+      </c>
+      <c r="C324" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>লিবারেল</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>ডেমোক্র্যাটিক</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>0</v>
+      </c>
+      <c r="C326" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>চেয়ারম্যান</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+      <c r="C327" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>ভ্লাদিমির</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+      <c r="C328" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>জিরিনোভস্কির</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>2</v>
+      </c>
+      <c r="C329" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>দেখা</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
+      <c r="C330" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>তুরস্কের</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>7</v>
+      </c>
+      <c r="C331" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>পররাষ্ট্রমন্ত্রী</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+      <c r="C332" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>তুরস্ক</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>5</v>
+      </c>
+      <c r="C333" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>নভেম্বরে</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0</v>
+      </c>
+      <c r="C334" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>অনুষ্ঠিতব্য</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0</v>
+      </c>
+      <c r="C335" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>বাগদাদ</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>5</v>
+      </c>
+      <c r="C336" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>মেলায়</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+      <c r="C337" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>অংশ</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0</v>
+      </c>
+      <c r="C338" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>নেবে</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0</v>
+      </c>
+      <c r="C339" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>প্রেস</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0</v>
+      </c>
+      <c r="C340" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>ডাইজেস্ট</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0</v>
+      </c>
+      <c r="C341" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>লেবানন</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>5</v>
+      </c>
+      <c r="C342" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>২২</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0</v>
+      </c>
+      <c r="C343" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>আগস্ট</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0</v>
+      </c>
+      <c r="C344" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>বৈরুত</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>5</v>
+      </c>
+      <c r="C345" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>প্রেসে</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0</v>
+      </c>
+      <c r="C346" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>এগুলি</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0</v>
+      </c>
+      <c r="C347" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>প্রধান</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0</v>
+      </c>
+      <c r="C348" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>খবর</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>রয়টার্স</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>3</v>
+      </c>
+      <c r="C350" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>গল্পগুলি</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0</v>
+      </c>
+      <c r="C351" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>যাচাই</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0</v>
+      </c>
+      <c r="C352" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>করেনি</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>0</v>
+      </c>
+      <c r="C353" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>তাদের</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>0</v>
+      </c>
+      <c r="C354" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>নির্ভুলতার</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0</v>
+      </c>
+      <c r="C355" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>প্রতিশ্রুতি</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>0</v>
+      </c>
+      <c r="C356" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>দেয়</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>0</v>
+      </c>
+      <c r="C357" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>আন-নাহার</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>3</v>
+      </c>
+      <c r="C358" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>হিজবুল্লাহ</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>3</v>
+      </c>
+      <c r="C359" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>সরকারের</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0</v>
+      </c>
+      <c r="C360" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>সংঘর্ষ</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>0</v>
+      </c>
+      <c r="C361" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>বাড়ছে</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>0</v>
+      </c>
+      <c r="C362" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>প্রধানমন্ত্রী</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>0</v>
+      </c>
+      <c r="C363" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>হারিরি</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+      <c r="C364" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>ইজরায়েলি</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>7</v>
+      </c>
+      <c r="C365" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>হুমকি</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>0</v>
+      </c>
+      <c r="C366" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>শান্তি</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>0</v>
+      </c>
+      <c r="C367" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>বয়ে</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>0</v>
+      </c>
+      <c r="C368" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>আনবে</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0</v>
+      </c>
+      <c r="C369" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>আস-সাফির</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>3</v>
+      </c>
+      <c r="C370" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>সংসদের</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0</v>
+      </c>
+      <c r="C371" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>স্পিকার</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0</v>
+      </c>
+      <c r="C372" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>বেরি</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+      <c r="C373" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ইসরায়েল</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>5</v>
+      </c>
+      <c r="C374" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>সিরিয়া</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>5</v>
+      </c>
+      <c r="C375" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>লেবাননের</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>5</v>
+      </c>
+      <c r="C376" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>বিরুদ্ধে</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0</v>
+      </c>
+      <c r="C377" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>যুদ্ধের</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0</v>
+      </c>
+      <c r="C378" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>প্রস্তুতি</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0</v>
+      </c>
+      <c r="C379" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>নিচ্ছে</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+      <c r="C380" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>বৈরুতে</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>5</v>
+      </c>
+      <c r="C381" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>সংসদীয়</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+      <c r="C382" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>যুদ্ধ</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+      <c r="C383" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+      <c r="C384" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>তিনটি</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+      <c r="C385" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>তালিকা</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0</v>
+      </c>
+      <c r="C386" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>প্রস্তুত</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0</v>
+      </c>
+      <c r="C387" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>করা</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0</v>
+      </c>
+      <c r="C388" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>আল-আনওয়ার</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>3</v>
+      </c>
+      <c r="C389" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>আইন</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0</v>
+      </c>
+      <c r="C390" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>ভঙ্গের</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0</v>
+      </c>
+      <c r="C391" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>ঘটনার</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+      <c r="C392" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>ক্রমাগত</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>0</v>
+      </c>
+      <c r="C393" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>সমালোচনা</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0</v>
+      </c>
+      <c r="C394" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>যা</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>0</v>
+      </c>
+      <c r="C395" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>রবিবারে</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+      <c r="C396" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>মাউন্ট</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>5</v>
+      </c>
+      <c r="C397" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>নির্বাচনে</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>0</v>
+      </c>
+      <c r="C398" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>ঘটেছে</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>0</v>
+      </c>
+      <c r="C399" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>অ্যাড-দিয়ার</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>3</v>
+      </c>
+      <c r="C400" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>পাকিস্তানের</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>5</v>
+      </c>
+      <c r="C401" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>আর্থিক</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>0</v>
+      </c>
+      <c r="C402" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>আলোচনা</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>0</v>
+      </c>
+      <c r="C403" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>অসম্পূর্ণ</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>0</v>
+      </c>
+      <c r="C404" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>নির্বাচনী</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>0</v>
+      </c>
+      <c r="C405" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>লড়াইয়ে</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>0</v>
+      </c>
+      <c r="C406" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>নামছেন</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>0</v>
+      </c>
+      <c r="C407" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>নিদা</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>3</v>
+      </c>
+      <c r="C408" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>আ</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>0</v>
+      </c>
+      <c r="C409" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>আল-ওয়াতান</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>4</v>
+      </c>
+      <c r="C410" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>ম্যারোনাইট</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>3</v>
+      </c>
+      <c r="C411" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>প্যাট্রিয়ার্ক</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0</v>
+      </c>
+      <c r="C412" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>স্ফিয়ার</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+      <c r="C413" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>রবিবারের</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>0</v>
+      </c>
+      <c r="C414" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>লঙ্ঘনের</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>0</v>
+      </c>
+      <c r="C415" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>দুঃখ</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>0</v>
+      </c>
+      <c r="C416" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>প্রকাশ</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>0</v>
+      </c>
+      <c r="C417" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>সিএমই</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>3</v>
+      </c>
+      <c r="C418" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>লাইভ</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0</v>
+      </c>
+      <c r="C419" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>ফিডার</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0</v>
+      </c>
+      <c r="C420" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>গবাদিপশু</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0</v>
+      </c>
+      <c r="C421" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>কল</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>0</v>
+      </c>
+      <c r="C422" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>মিশ্র</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>0</v>
+      </c>
+      <c r="C423" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>পরিসীমা</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0</v>
+      </c>
+      <c r="C424" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>শিকাগো</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>5</v>
+      </c>
+      <c r="C425" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>পশুসম্পদ</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0</v>
+      </c>
+      <c r="C426" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>বিশ্লেষকরা</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0</v>
+      </c>
+      <c r="C427" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>সিএমই-এর</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>3</v>
+      </c>
+      <c r="C428" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>ফিডড</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>0</v>
+      </c>
+      <c r="C429" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>ফিউচারগুলির</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>0</v>
+      </c>
+      <c r="C430" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>প্রাথমিক</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>0</v>
+      </c>
+      <c r="C431" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>কলগুলি</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>0</v>
+      </c>
+      <c r="C432" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>০.২০০</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>0</v>
+      </c>
+      <c r="C433" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>সেন্ট</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>0</v>
+      </c>
+      <c r="C434" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>০.১০০</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>0</v>
+      </c>
+      <c r="C435" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>সেন্টের</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>0</v>
+      </c>
+      <c r="C436" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>নগদ</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>0</v>
+      </c>
+      <c r="C437" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>মাংসের</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>0</v>
+      </c>
+      <c r="C438" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>বাজারের</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>0</v>
+      </c>
+      <c r="C439" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>প্রবণতাকে</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>0</v>
+      </c>
+      <c r="C440" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>উচিত</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0</v>
+      </c>
+      <c r="C441" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>বলতে</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>0</v>
+      </c>
+      <c r="C442" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>চাই</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0</v>
+      </c>
+      <c r="C443" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>কোনো</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0</v>
+      </c>
+      <c r="C444" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>নির্দিষ্ট</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0</v>
+      </c>
+      <c r="C445" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>বিপদ</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>0</v>
+      </c>
+      <c r="C446" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>রয়েছে</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>0</v>
+      </c>
+      <c r="C447" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>আমাদের</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>0</v>
+      </c>
+      <c r="C448" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>জ্ঞানে</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0</v>
+      </c>
+      <c r="C449" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>অনেক</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>0</v>
+      </c>
+      <c r="C450" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>ফাঁক</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>0</v>
+      </c>
+      <c r="C451" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>এগুলো</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>0</v>
+      </c>
+      <c r="C452" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>খুব</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>0</v>
+      </c>
+      <c r="C453" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>দ্রুত</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>0</v>
+      </c>
+      <c r="C454" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>পূরণ</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>0</v>
+      </c>
+      <c r="C455" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>হবে।</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>0</v>
+      </c>
+      <c r="C456" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>পাগলা</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>0</v>
+      </c>
+      <c r="C457" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>সংকট</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>0</v>
+      </c>
+      <c r="C458" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>মোকাবেলায়</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>0</v>
+      </c>
+      <c r="C459" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>অগ্রাধিকারের</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>0</v>
+      </c>
+      <c r="C460" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>তালিকায়</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>0</v>
+      </c>
+      <c r="C461" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>ভোক্তা</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>0</v>
+      </c>
+      <c r="C462" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>সুরক্ষা</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>0</v>
+      </c>
+      <c r="C463" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>নিশ্চিতের</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>0</v>
+      </c>
+      <c r="C464" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>প্রচেষ্টার</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>0</v>
+      </c>
+      <c r="C465" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>নেতৃত্ব</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>0</v>
+      </c>
+      <c r="C466" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>মার্চ</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>0</v>
+      </c>
+      <c r="C467" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>হয়েছিল</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>0</v>
+      </c>
+      <c r="C468" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>যখন</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>0</v>
+      </c>
+      <c r="C469" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>দূষিত</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>0</v>
+      </c>
+      <c r="C470" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>খেয়ে</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>0</v>
+      </c>
+      <c r="C471" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>মানুষ</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>0</v>
+      </c>
+      <c r="C472" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>রকম</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>0</v>
+      </c>
+      <c r="C473" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>অসুস্থতায়</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>0</v>
+      </c>
+      <c r="C474" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>আক্রান্ত</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>0</v>
+      </c>
+      <c r="C475" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>গবাদি</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>0</v>
+      </c>
+      <c r="C476" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>পশু-খাদ্য</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>0</v>
+      </c>
+      <c r="C477" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>সংক্রান্ত</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>0</v>
+      </c>
+      <c r="C478" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>প্রতিবেদনের</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>0</v>
+      </c>
+      <c r="C479" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>প্রতি</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>0</v>
+      </c>
+      <c r="C480" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>দৃষ্টি</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>0</v>
+      </c>
+      <c r="C481" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>দেওয়া</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>0</v>
+      </c>
+      <c r="C482" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>কিছু</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>0</v>
+      </c>
+      <c r="C483" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>ষাঁড়ের</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>0</v>
+      </c>
+      <c r="C484" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>বিস্তারে</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>0</v>
+      </c>
+      <c r="C485" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>সহায়তা</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0</v>
+      </c>
+      <c r="C486" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>বলে</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>0</v>
+      </c>
+      <c r="C487" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>আশা</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0</v>
+      </c>
+      <c r="C488" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>হচ্ছে</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0</v>
+      </c>
+      <c r="C489" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>যাইহোক</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0</v>
+      </c>
+      <c r="C490" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>হবে</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>0</v>
+      </c>
+      <c r="C491" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>সন্ধ্যায়</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0</v>
+      </c>
+      <c r="C492" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>দাম</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0</v>
+      </c>
+      <c r="C493" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>বাড়তে</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>0</v>
+      </c>
+      <c r="C494" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>সপ্তাহে</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>0</v>
+      </c>
+      <c r="C495" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>রেকর্ড</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>0</v>
+      </c>
+      <c r="C496" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>পরিমাণে</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0</v>
+      </c>
+      <c r="C497" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>হওয়ার</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0</v>
+      </c>
+      <c r="C498" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>বাজারও</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>0</v>
+      </c>
+      <c r="C499" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>শান্ত</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0</v>
+      </c>
+      <c r="C500" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>থাকবে</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>0</v>
+      </c>
+      <c r="C501" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>কিন্ডারকেয়ার</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>3</v>
+      </c>
+      <c r="C502" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>কিউ১</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0</v>
+      </c>
+      <c r="C503" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>ফলাফলে</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>0</v>
+      </c>
+      <c r="C504" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>ঋণ</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>0</v>
+      </c>
+      <c r="C505" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>ক্রয়</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0</v>
+      </c>
+      <c r="C506" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>মন্টগোমেরি</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>5</v>
+      </c>
+      <c r="C507" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>আলা</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>5</v>
+      </c>
+      <c r="C508" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>লার্নিং</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>4</v>
+      </c>
+      <c r="C509" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>সেন্টারস</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>4</v>
+      </c>
+      <c r="C510" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>ইনক</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>4</v>
+      </c>
+      <c r="C511" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>জানিয়েছে</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>0</v>
+      </c>
+      <c r="C512" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>১৯৯৭</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>0</v>
+      </c>
+      <c r="C513" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>প্রান্তিকে</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>0</v>
+      </c>
+      <c r="C514" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>পরিশোধের</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0</v>
+      </c>
+      <c r="C515" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>ফলে</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>0</v>
+      </c>
+      <c r="C516" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>0</v>
+      </c>
+      <c r="C517" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>১.২</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>0</v>
+      </c>
+      <c r="C518" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>মিলিয়ন</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>0</v>
+      </c>
+      <c r="C519" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>ক্ষতি</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>0</v>
+      </c>
+      <c r="C520" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>কোম্পানিটি</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>0</v>
+      </c>
+      <c r="C521" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>১</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>0</v>
+      </c>
+      <c r="C522" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>জুন</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>0</v>
+      </c>
+      <c r="C523" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>হওয়া</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>0</v>
+      </c>
+      <c r="C524" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>২০০১</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>0</v>
+      </c>
+      <c r="C525" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>১০-৩/৮</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>0</v>
+      </c>
+      <c r="C526" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>সিনিয়র</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>0</v>
+      </c>
+      <c r="C527" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>নোটের</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>0</v>
+      </c>
+      <c r="C528" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>মূল্যমান</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>0</v>
+      </c>
+      <c r="C529" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>৩০</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>0</v>
+      </c>
+      <c r="C530" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>ডলার</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>0</v>
+      </c>
+      <c r="C531" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>নোটগুলো</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>0</v>
+      </c>
+      <c r="C532" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>৩১.৫</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>0</v>
+      </c>
+      <c r="C533" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>ডলারে</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>0</v>
+      </c>
+      <c r="C534" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>কেনা</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>0</v>
+      </c>
+      <c r="C535" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>গবেষণা</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>0</v>
+      </c>
+      <c r="C536" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>সতর্কতা</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>0</v>
+      </c>
+      <c r="C537" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>লেহমান</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>3</v>
+      </c>
+      <c r="C538" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>এসএনইটি</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>3</v>
+      </c>
+      <c r="C539" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>চালু</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>0</v>
+      </c>
+      <c r="C540" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>আই</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+      <c r="C541" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>স্যালিসবারি</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>2</v>
+      </c>
+      <c r="C542" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>নট</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>0</v>
+      </c>
+      <c r="C543" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>আউট</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>0</v>
+      </c>
+      <c r="C544" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>অতিরিক্ত</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0</v>
+      </c>
+      <c r="C545" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>এলবি-১১</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>0</v>
+      </c>
+      <c r="C546" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>ডব্লিউ-১</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>0</v>
+      </c>
+      <c r="C547" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>এনবি-৮</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>0</v>
+      </c>
+      <c r="C548" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>মোট</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0</v>
+      </c>
+      <c r="C549" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>ছয়</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>0</v>
+      </c>
+      <c r="C550" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>উইকেটে</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>0</v>
+      </c>
+      <c r="C551" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>২৭৮</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0</v>
+      </c>
+      <c r="C552" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>উইকেট</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>0</v>
+      </c>
+      <c r="C553" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>পতন</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>0</v>
+      </c>
+      <c r="C554" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>১-৬৪</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>0</v>
+      </c>
+      <c r="C555" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>২-৮৫</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>0</v>
+      </c>
+      <c r="C556" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>৩-১১৬</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>0</v>
+      </c>
+      <c r="C557" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>৪-২০৫</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>0</v>
+      </c>
+      <c r="C558" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>৫-২৪৮</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>0</v>
+      </c>
+      <c r="C559" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>৬-২৭৩</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>0</v>
+      </c>
+      <c r="C560" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>ব্যাট</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>0</v>
+      </c>
+      <c r="C561" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>আর</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+      <c r="C562" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>ক্রফট</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>2</v>
+      </c>
+      <c r="C563" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>কর্ক</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>2</v>
+      </c>
+      <c r="C564" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>এ</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+      <c r="C565" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>মুল্লালি</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>2</v>
+      </c>
+      <c r="C566" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>বোলিং</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>0</v>
+      </c>
+      <c r="C567" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>এখন</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>0</v>
+      </c>
+      <c r="C568" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>ওয়াসিম</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+      <c r="C569" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>আকরাম</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>2</v>
+      </c>
+      <c r="C570" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>২৫-৮-৬১-১</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>0</v>
+      </c>
+      <c r="C571" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>ওয়াকার</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+      <c r="C572" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>ইউনুস</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>2</v>
+      </c>
+      <c r="C573" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>২০-৬-৭০-২</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>0</v>
+      </c>
+      <c r="C574" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>মোহাম্মদ</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+      <c r="C575" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>১২-১-৪১-১</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>0</v>
+      </c>
+      <c r="C576" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>মুশতাক</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+      <c r="C577" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>আহমেদ</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>2</v>
+      </c>
+      <c r="C578" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>২৭-৫-৭৮-২</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>0</v>
+      </c>
+      <c r="C579" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>আমির</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+      <c r="C580" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>সোহেল</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>2</v>
+      </c>
+      <c r="C581" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>৬-১-১৭-০</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>0</v>
+      </c>
+      <c r="C582" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>পাকিস্তান</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>5</v>
+      </c>
+      <c r="C583" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>সাঈদ</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+      <c r="C584" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>আনোয়ার</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>2</v>
+      </c>
+      <c r="C585" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>ইজাজ</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+      <c r="C586" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>ইনজামাম-উল-হক</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+      <c r="C587" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>সেলিম</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+      <c r="C588" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>মালিক</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>2</v>
+      </c>
+      <c r="C589" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>আসিফ</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+      <c r="C590" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>মুজতবা</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>2</v>
+      </c>
+      <c r="C591" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>মঈন</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+      <c r="C592" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>খান</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+      <c r="C593" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>আকম</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>2</v>
+      </c>
+      <c r="C594" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>সকার</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>0</v>
+      </c>
+      <c r="C595" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>ফার্গুসন</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+      <c r="C596" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>মাস</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>0</v>
+      </c>
+      <c r="C597" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>স্কটিশ</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>7</v>
+      </c>
+      <c r="C598" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>স্কোয়াডে</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>0</v>
+      </c>
+      <c r="C599" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>ফিরেছেন</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>0</v>
+      </c>
+      <c r="C600" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>গ্লাসগো</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>5</v>
+      </c>
+      <c r="C601" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>ম্যানচেস্টার</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>3</v>
+      </c>
+      <c r="C602" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>ইউনাইটেডের</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>4</v>
+      </c>
+      <c r="C603" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>বিপক্ষে</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>0</v>
+      </c>
+      <c r="C604" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>দুবার</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>0</v>
+      </c>
+      <c r="C605" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>গোল</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>0</v>
+      </c>
+      <c r="C606" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>এভারটনের</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>3</v>
+      </c>
+      <c r="C607" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>ডানকান</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+      <c r="C608" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>ফার্গুসনকে</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>2</v>
+      </c>
+      <c r="C609" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>0</v>
+      </c>
+      <c r="C610" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>নির্বাসনের</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>0</v>
+      </c>
+      <c r="C611" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>নেওয়া</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>0</v>
+      </c>
+      <c r="C612" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>অস্ট্রেলিয়ান</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>7</v>
+      </c>
+      <c r="C613" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>কোচ</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>0</v>
+      </c>
+      <c r="C614" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>জিওফ</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+      <c r="C615" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>মার্শ</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>2</v>
+      </c>
+      <c r="C616" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>প্রতিপক্ষের</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0</v>
+      </c>
+      <c r="C617" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>প্রতিদ্বন্দ্বিতা</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>0</v>
+      </c>
+      <c r="C618" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>দেখে</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>0</v>
+      </c>
+      <c r="C619" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>মুগ্ধ</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>0</v>
+      </c>
+      <c r="C620" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>রেঞ্জার্স</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>4</v>
+      </c>
+      <c r="C621" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>স্ট্রাইকার</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>0</v>
+      </c>
+      <c r="C622" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>অ্যালি</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+      <c r="C623" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>ম্যাককয়েস্ট</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>2</v>
+      </c>
+      <c r="C624" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>চার</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>0</v>
+      </c>
+      <c r="C625" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>দিনে</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>0</v>
+      </c>
+      <c r="C626" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>দুটি</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>0</v>
+      </c>
+      <c r="C627" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>হ্যাটট্রিকের</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>0</v>
+      </c>
+      <c r="C628" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>ফর্মে</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>0</v>
+      </c>
+      <c r="C629" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>থাকা</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>0</v>
+      </c>
+      <c r="C630" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>আরেকজন</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>0</v>
+      </c>
+      <c r="C631" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>ব্যক্তি</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>0</v>
+      </c>
+      <c r="C632" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>ভিয়েনায়</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>5</v>
+      </c>
+      <c r="C633" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>অস্ট্রিয়াকে</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>5</v>
+      </c>
+      <c r="C634" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>৩১</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>0</v>
+      </c>
+      <c r="C635" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>আগস্টের</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>0</v>
+      </c>
+      <c r="C636" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>বিশ্বকাপ</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>7</v>
+      </c>
+      <c r="C637" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>বাছাইপর্বের</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>0</v>
+      </c>
+      <c r="C638" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>জন্যও</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>0</v>
+      </c>
+      <c r="C639" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>নাম</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>0</v>
+      </c>
+      <c r="C640" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>যিনি</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>0</v>
+      </c>
+      <c r="C641" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>১৯৯৫</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>0</v>
+      </c>
+      <c r="C642" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>শেষের</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>0</v>
+      </c>
+      <c r="C643" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>একজন</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>0</v>
+      </c>
+      <c r="C644" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>মাথায়</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>0</v>
+      </c>
+      <c r="C645" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>আঘাত</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>0</v>
+      </c>
+      <c r="C646" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>সপ্তাহ</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>0</v>
+      </c>
+      <c r="C647" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>জেলে</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>0</v>
+      </c>
+      <c r="C648" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>১৯৯৪</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>0</v>
+      </c>
+      <c r="C649" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>ডিসেম্বরে</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>0</v>
+      </c>
+      <c r="C650" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>পাঁচটি</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>0</v>
+      </c>
+      <c r="C651" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>স্কটল্যান্ড</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>5</v>
+      </c>
+      <c r="C652" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>ক্যাপের</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>0</v>
+      </c>
+      <c r="C653" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>জিতেছিলেন</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>0</v>
+      </c>
+      <c r="C654" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>স্কটল্যান্ডের</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>5</v>
+      </c>
+      <c r="C655" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>ক্রেগ</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>1</v>
+      </c>
+      <c r="C656" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>ব্রাউন</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>2</v>
+      </c>
+      <c r="C657" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>সম্প্রতি</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>0</v>
+      </c>
+      <c r="C658" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>দু</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>0</v>
+      </c>
+      <c r="C659" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>বার</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>0</v>
+      </c>
+      <c r="C660" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>খেলতে</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>0</v>
+      </c>
+      <c r="C661" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>দেখেছি</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>0</v>
+      </c>
+      <c r="C662" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>দুর্দান্ত</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>0</v>
+      </c>
+      <c r="C663" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>আছেন</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>0</v>
+      </c>
+      <c r="C664" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>ম্যাককয়েস্টও</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>2</v>
+      </c>
+      <c r="C665" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>মুহূর্তে</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>0</v>
+      </c>
+      <c r="C666" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>স্কোরিং</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>0</v>
+      </c>
+      <c r="C667" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>রয়েছেন</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>0</v>
+      </c>
+      <c r="C668" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>সেল্টিকের</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>3</v>
+      </c>
+      <c r="C669" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>জ্যাকি</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>1</v>
+      </c>
+      <c r="C670" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>ম্যাকনামারা</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>2</v>
+      </c>
+      <c r="C671" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>মৌসুমে</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>0</v>
+      </c>
+      <c r="C672" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>সফলভাবে</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>0</v>
+      </c>
+      <c r="C673" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>অনূর্ধ্ব-২১</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>0</v>
+      </c>
+      <c r="C674" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>দলের</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>0</v>
+      </c>
+      <c r="C675" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>হয়ে</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>0</v>
+      </c>
+      <c r="C676" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>খেলেছেন</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>0</v>
+      </c>
+      <c r="C677" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>ডাক</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>0</v>
+      </c>
+      <c r="C678" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>পেয়েছেন</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>0</v>
+      </c>
+      <c r="C679" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>অস্ট্রেলিয়া</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>5</v>
+      </c>
+      <c r="C680" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>৭-১</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>0</v>
+      </c>
+      <c r="C681" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>১৩-১১</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0</v>
+      </c>
+      <c r="C682" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>প্যাট্রিক</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>1</v>
+      </c>
+      <c r="C683" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>রাফটার</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>2</v>
+      </c>
+      <c r="C684" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>১১</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>0</v>
+      </c>
+      <c r="C685" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>আলবার্তো</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>1</v>
+      </c>
+      <c r="C686" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>বেরাসাতেগুইকে</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>2</v>
+      </c>
+      <c r="C687" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>৭</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>0</v>
+      </c>
+      <c r="C688" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>টড</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>1</v>
+      </c>
+      <c r="C689" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>মার্টিন</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>2</v>
+      </c>
+      <c r="C690" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>মার্কিন</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>5</v>
+      </c>
+      <c r="C691" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>যুক্তরাষ্ট্র</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>6</v>
+      </c>
+      <c r="C692" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>রেঞ্জো</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>1</v>
+      </c>
+      <c r="C693" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>ফুরলান</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>2</v>
+      </c>
+      <c r="C694" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>ইতালি</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>5</v>
+      </c>
+      <c r="C695" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>৭-৩</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>0</v>
+      </c>
+      <c r="C696" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>মার্ক</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>1</v>
+      </c>
+      <c r="C697" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>ফিলিপুসিস</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>2</v>
+      </c>
+      <c r="C698" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>৮</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>0</v>
+      </c>
+      <c r="C699" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>মার্ক</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>1</v>
+      </c>
+      <c r="C700" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>রসেটকে</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>2</v>
+      </c>
+      <c r="C701" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>বেরাসাতেগুই</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>2</v>
+      </c>
+      <c r="C702" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>সুইজারল্যান্ড</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>5</v>
+      </c>
+      <c r="C703" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>৩-৬</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>0</v>
+      </c>
+      <c r="C704" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>৮-৬</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>0</v>
+      </c>
+      <c r="C705" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>৯</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>17</t>
+      <c r="C706" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>সেড্রিক</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>পিওলিন</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>গ্রেগরি</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>ক্যারাজ</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>ব্যবধানে</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>৬</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>মালিভাই</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>ওয়াশিংটন</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>ইউএসএ</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>আলেক্স</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>করেটজা</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>৪</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>মার্সেলো</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>রিওস</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>চিলি</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>কেনেথ</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>কার্লসেন</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>ডেনমার্ক</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>৩</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>ওয়েন</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>ফেরেইরা</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>দক্ষিণ</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>আফ্রিকা</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>জিরি</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>নোভাককে</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
     </row>

--- a/token_data_map.xlsx
+++ b/token_data_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1489"/>
+  <dimension ref="A1:C2067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22618,6 +22618,9832 @@
         </is>
       </c>
     </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>বর্তমান</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1490" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>প্রেক্ষাপটে</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>প্রশ্নের</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1492" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>জবাবে</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>সময়ের</t>
+        </is>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1494" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>কমিয়ে</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>আনার</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>দিয়েছিল</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>কথাই</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>#11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>ভ্যাটিকান</t>
+        </is>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>ডাবলিনের</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>মাদার</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>সুপরিওর</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>অনুমোদন</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>আমেরিকান</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>মিশনারিদের</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>হিসাবে</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>নিবিড়</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>প্রশিক্ষণের</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>১৯৪৯</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>কলকাতার</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>বস্তি</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>স্কুলটি</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>ভ্যাটিকান</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>ডাবলিনের</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>মাদার</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>সুপরিওর</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>অনুমোদন</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>আমেরিকান</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>মিশনারিদের</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>হিসাবে</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>নিবিড়</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>প্রশিক্ষণের</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>১৯৪৯</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>কলকাতার</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>বস্তি</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>স্কুলটি</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>চলতি</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>হিসাবের</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>ঘাটতি</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>বোম্বে</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>চক্রবর্তী</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>প্রবৃদ্ধির</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>হার</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>বিবেচনা</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>জিডিপির</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>শতাংশের</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>হিসাব</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>টেকসই</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>নয়াদিল্লিতে</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>ব্যবসায়ী</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>উদ্দেশ্যে</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>ভাষণে</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>মতো</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>মাত্রা</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>প্রকৃত</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>বৃদ্ধির</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>#12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>আমদানি</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>রপ্তানির</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>প্রবণতা</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>রাঙ্গারাজন</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>রপ্তানিতে</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>১৬-১৭</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>বার্ষিক</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>প্রবৃদ্ধি</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>আমদানিতে</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>১৪-১৫</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>ঋণ-বহির্ভূত</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>প্রবাহ</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>বছরে</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>ঋণ-সেবা</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>নিচে</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>নিউজ</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>রুম</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>+৯১-২২-২৬৫</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>৯০০০</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>তেরেসা</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>বিশ্বের</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>দরিদ্রদের</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>নিবেদিত</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>কলকাতা</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>গলির</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>সন্ত</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>পরিচিত</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>১৯৭৯</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>নোবেল</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>পুরস্কার</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>লক্ষ</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>লক্ষ</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>দরিদ্র</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>অবাঞ্ছিত</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>মানুষের</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>মর্যাদা</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>এনে</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>#12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>দেওয়ার</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>#13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>তাঁর</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>#14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>সরল</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>বার্তা</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>অবশ্যই</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>জানতে</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>#16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>ভালবাসি।</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>#18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>সম্মানিত</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>এমনকি</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>জীবন্ত</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>আলবেনীয়</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>নান</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>দাবি</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>শুধু</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>#12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>ঈশ্বরের</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>অবহেলিতদের</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>ভালোবাসা</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>যত্ন</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>আনন্দ</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>পরিপূর্ণতা</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>দেয়।</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>সহানুভূতি</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>করুণার</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>নেই</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>ভালবাসা</t>
+        </is>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>প্রয়োজন।</t>
+        </is>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>ক্ষুদে</t>
+        </is>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>রোমান</t>
+        </is>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>ক্যাথলিক</t>
+        </is>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>ধর্মপ্রচারক</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>হৃদরোগে</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>নার্সিং</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>হোমের</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>পরিচর্যা</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>বিভাগে</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>শ্বাস</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>প্রশ্বাসের</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>সহায়তায়</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>চিকিৎসক</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>টেরেসা</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>মঙ্গলবার</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>৮৬</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>বয়সী</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>সচেতন</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>অবস্থা</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>স্থিতিশীল</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>কাজটি</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>ঘিঞ্জি</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>একা</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>পরবর্তীতে</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>হৃদয়</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>স্পর্শ</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>স্বাভাবিকভাবে</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>অযোগ্য</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>বিশ্ব</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>একমত</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>৮০টিরও</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>আন্তর্জাতিক</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>সম্মানে</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>ভূষিত</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>ভারতরত্ন</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>#11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>রত্ন</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>সর্বোচ্চ</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>বেসামরিক</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>১৯৮৯</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>হার্ট</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>পেসমেকার</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>স্থাপন</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>অবনতি</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>মিশনারীজ</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>অফ</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>চ্যারিটি</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>অর্ডারের</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>সর্বোচ্চপদ</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>যাচ্ছেন</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>উত্তরসূরি</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>সারা</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>জনেরও</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>প্রতিনিধি</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>এসেছিলেন</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>পারেনি</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>থাকতে</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>রাজি</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>হয়েছিলেন</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>১৯৯১</t>
+        </is>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>ক্যালিফোর্নিয়ার</t>
+        </is>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>হাসপাতালে</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>হৃদরোগ</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>ব্যাকটেরিয়াল</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>নিউমোনিয়ার</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>চিকিৎসা</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>গ্রহণ</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>১৯৯৩</t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>রোমে</t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>গিয়ে</t>
+        </is>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>পাঁজরের</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>হাড়</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>ভেঙেছিলেন</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>আগস্টে</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>নিউ</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>দিল্লিতে</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>আরেকটি</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>গিয়েছিলেন</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>ম্যালেরিয়া</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>ফুসফুসের</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>সমস্যাগুলির</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>জটিল</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>এপ্রিলে</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>বাম</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>কলার</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>ভেঙে</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>যায়</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>ক্রমবর্ধমান</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>দুর্বলতা</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>আর্থ্রাইটিস</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>দৃষ্টিহীনতা</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>সত্ত্বেও</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>হতাশ</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>মিশতে</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>বিশ্বজুড়ে</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>ভ্রমণ</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>১৯১০</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>২৭</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>সার্বিয়ার</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1707" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>স্কোপজে</t>
+        </is>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1708" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>পিতামাতার</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>ঘরে</t>
+        </is>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1710" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>আ্যগনেস</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1711" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>গোজ্নজা</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>বেজাখিউ</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>নামে</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>জন্মগ্রহণ</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>স্কুলে</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>পড়াশোনা</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>১২</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>বয়সে</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>গভীরভাবে</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>ধার্মিক</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>১৮</t>
+        </is>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>বয়সে</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>লোরেটো</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C1724" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>মিশনে</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>করবেন</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>তাঁকে</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>অ্যাবে</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>পাঠানো</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>সেখান</t>
+        </is>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1730" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>ভারতে</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1731" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>নভিশিয়াট</t>
+        </is>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1732" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>কনভেন্ট</t>
+        </is>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1733" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>ভূগোল</t>
+        </is>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1734" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>পড়াতে</t>
+        </is>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1735" t="inlineStr">
+        <is>
+          <t>#13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>১৯৪৬</t>
+        </is>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1736" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>সেপ্টেম্বর</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1737" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>ঐশ্বরিক</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1738" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>এসেছিল।</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>বার্তাটি</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1740" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>বেশ</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1741" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>স্পষ্ট</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1742" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>সাক্ষাৎকারকারীকে</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1743" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>গরিবদের</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>সাহায্য</t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>বসবাস</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>একটা</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>আদেশ</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>জানতাম</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>জায়গা</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>কোথায়।</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>ফ্রান্সের</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>থেরেসে</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>শিশু</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>যীশুর</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>মা</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>হত</t>
+        </is>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>হাসপাতাল</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>মহিলাকে</t>
+        </is>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>ফিরিয়ে</t>
+        </is>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>হিন্দু</t>
+        </is>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>বিশ্রামাগারে</t>
+        </is>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>মৃত্যুপথযাত্রীদের</t>
+        </is>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>আবাসস্থল</t>
+        </is>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>নির্মল</t>
+        </is>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>নরম</t>
+        </is>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>নামক</t>
+        </is>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>বাড়িটি</t>
+        </is>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>মৃত্যুপথযাত্রী</t>
+        </is>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>অভাবগ্রস্ত</t>
+        </is>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>১৫০টি</t>
+        </is>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>বাড়ির</t>
+        </is>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>১৮,০০০</t>
+        </is>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>মানুষকে</t>
+        </is>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>আশ্রয়</t>
+        </is>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1775" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>কোমল</t>
+        </is>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1776" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>মিশনারিজ</t>
+        </is>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1777" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>ধর্মীয়</t>
+        </is>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1778" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>সংগঠন</t>
+        </is>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1779" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>প্রতিষ্ঠা</t>
+        </is>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1780" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>বর্তমানে</t>
+        </is>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1781" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>বিদেশে</t>
+        </is>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1782" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>৩০০টি</t>
+        </is>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1783" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>চালাচ্ছে</t>
+        </is>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1784" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>অনাহারি</t>
+        </is>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1785" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>অভাবী</t>
+        </is>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1786" t="inlineStr">
+        <is>
+          <t>#11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>মানুষদের</t>
+        </is>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1787" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>টেলিভিশন</t>
+        </is>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1788" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>তথ্যচিত্র</t>
+        </is>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1789" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>তেরেসাকে</t>
+        </is>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C1790" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>ঘিরে</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>কাহিনী</t>
+        </is>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>অতিরঞ্জন</t>
+        </is>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>বিশ্বাসযোগ্যতার</t>
+        </is>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>মিশ্রণ</t>
+        </is>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>অভিহিত</t>
+        </is>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>#11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>ক্যাথলিকরা</t>
+        </is>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>আরটিআরএস</t>
+        </is>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>ফোকাস-নিউজ</t>
+        </is>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>পরিচালিত</t>
+        </is>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>মুনাফা</t>
+        </is>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1801" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>বার্নার্ড</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>হিকি</t>
+        </is>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>সিডনি</t>
+        </is>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>মিডিয়া</t>
+        </is>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>ব্যারন</t>
+        </is>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>রুপার্ট</t>
+        </is>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>মারডকের</t>
+        </is>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>কর্প</t>
+        </is>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C1809" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>লিমিটেড</t>
+        </is>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C1810" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>১৯৯৫/৯৬</t>
+        </is>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1811" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>মুনাফার</t>
+        </is>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1812" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>মুনাফার</t>
+        </is>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>জানায়</t>
+        </is>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1814" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>ভবিষ্যদ্বাণী</t>
+        </is>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1815" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>হিট</t>
+        </is>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1816" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>চলচ্চিত্র</t>
+        </is>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1817" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>স্বাধীনতা</t>
+        </is>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>দিবস</t>
+        </is>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C1819" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>১৯৯৬/৯৭</t>
+        </is>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1820" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>অন্তত</t>
+        </is>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>বাড়াতে</t>
+        </is>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>আয়ের</t>
+        </is>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>দৃষ্টিকোণ</t>
+        </is>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>বছরটি</t>
+        </is>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>দারুণ</t>
+        </is>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>'ইন্ডিপেনডেন্স</t>
+        </is>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C1827" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>ডে</t>
+        </is>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C1828" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>মুভির</t>
+        </is>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>যুক্তরাষ্ট্রে</t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>ব্রডকাস্টিং</t>
+        </is>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>নেটওয়ার্কে</t>
+        </is>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>বিজ্ঞাপনের</t>
+        </is>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1833" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>কাগজের</t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>কমানো</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1835" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>দৃঢ়</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1836" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>বৃদ্ধিতে</t>
+        </is>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1837" t="inlineStr">
+        <is>
+          <t>#11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>কর্পের</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C1838" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>মতে</t>
+        </is>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1839" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>পুরো</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1840" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>বাজেটে</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1841" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>কমপক্ষে</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1842" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>সম্ভব</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>আশাবাদী</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1844" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>মন্তব্যগুলি</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>বিশ্লেষক</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>অধিকাংশ</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>শেয়ারহোল্ডারকে</t>
+        </is>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>লাভের</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>লাভে</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>সংবাদে</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>অস্বাভাবিকতার</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>নিট</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>১.২৬</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>৯৯৫</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>৪৬</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>৪০</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>সেন্টে</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>#13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>এসেছে</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>#15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>গড়ে</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>১.৩৪৩</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>ডলারের</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>প্রাক-অস্বাভাবিক</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>প্রশান্ত</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>মহাসাগরীয়</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>লাচলান</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>ড্রামন্ড</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>হতাশাজনক</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>দৃষ্টিভঙ্গি</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>ভালো।</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>শক্তিশালী</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>পারফরম্যান্স</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>ম্যাগাজিন</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>প্রকাশনা</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>বিভাগের</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>এশিয়ান</t>
+        </is>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>স্টার</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>টিভি</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>অপারেশন</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>ক্ষতির</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>ক্ষতিগ্রস্ত</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>উচ্চ</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>মূল্যে</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>কঠোর</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>প্রভাব</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>ফেলেছে</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>জুড়ে</t>
+        </is>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>৩০০</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>খরচ</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>অপারেটিং</t>
+        </is>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>১০</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>বেড়েছে</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>দ্য</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>সান</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>দ্য</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>টাইমসের</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>কভার</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>পরিমাণ</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>ব্যয়</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>বাড়িয়ে</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>#11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>তুলছে</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>#12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>বই</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>ম্যাগাজিনের</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>যাওয়াটাই</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>বিস্ময়</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>কর্পোরেশন</t>
+        </is>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>ইনসার্ট</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>রাজস্ব</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>পেপার</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>মূল্যের</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>ইউএস</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>গাইডের</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>বিক্রয়</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>ক্ষতিপূরণ</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>হার্পার-কোলিন্স</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>শাখা</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>নাটকীয়</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>কার্যক্রম</t>
+        </is>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t>#11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>ভালো</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>এতে</t>
+        </is>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>নেট</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C1921" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>বুক</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>বিলুপ্তি</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>অপারেশনকে</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>হার্পার-কলিন্সের</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>ইউনিটের</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>দুর্বল</t>
+        </is>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>সর্বনিম্ন</t>
+        </is>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>নির্ধারণের</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>সেপ্টেম্বরে</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>প্রকাশক</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>প্রত্যাহার</t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>নেন</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>১৯৯৬-৯৭</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>বাজে</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>বাজারে</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>আলোড়ন</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>শতাংশও</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>হয়তো</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>#11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>অবমূল্যায়ন</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>থাকে</t>
+        </is>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>তাহলে</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>অভ্যন্তরীণ</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>সম্ভবত</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>প্রকাশে</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>অনিচ্ছুক</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>কর্পোরেশনের</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>দুপুর</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>টায়</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>০৪০০</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>জিএমটি</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>৬.৩৯</t>
+        </is>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>০.৭৯</t>
+        </is>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>৬১-২</t>
+        </is>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>৩৭৩-১৮০০</t>
+        </is>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>৬১-২</t>
+        </is>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>৩৭৩-১৮০০</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>অস্ট্রেলিয়ার</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>সঞ্চয়</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>বাজেট</t>
+        </is>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>কাটছাঁট</t>
+        </is>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>আরবিএ</t>
+        </is>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>ক্যানবেরা</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>বাজেটের</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>পরিকল্পনা</t>
+        </is>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>সঞ্চয়ে</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>উপযোগী</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>অবদান</t>
+        </is>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>ভারসাম্য</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>বাস্তবায়িত</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>ব্যাংকটি</t>
+        </is>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>একত্রীকরণ</t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>অযথা</t>
+        </is>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>প্রবৃদ্ধিকে</t>
+        </is>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>সীমাবদ্ধ</t>
+        </is>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>প্রমাণ</t>
+        </is>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>অস্পষ্ট</t>
+        </is>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>জোট</t>
+        </is>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>৫.৬৫</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>১৯৯৮/৯৯</t>
+        </is>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>ভারসাম্যকে</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>উদ্বৃত্ত</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>অর্থবছরে</t>
+        </is>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>১০.৩</t>
+        </is>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>৯৩৭৩-১৮০০</t>
+        </is>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>অস্থিতিশীল</t>
+        </is>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
+        <is>
+          <t>অবস্থানগুলিতে</t>
+        </is>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>বিশ্বাসযোগ্য</t>
+        </is>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>প্রচেষ্টাগুলি</t>
+        </is>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>আস্থা</t>
+        </is>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>পুরস্কৃত</t>
+        </is>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>স্বল্পমেয়াদে</t>
+        </is>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>#12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>অর্থনৈতিক</t>
+        </is>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>কার্যকলাপে</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>অনুকূল</t>
+        </is>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>ফেলে</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>#13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>বলছে</t>
+        </is>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>সাধারণভাবে</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>সংস্কারের</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>দীর্ঘমেয়াদী</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>স্পষ্টভাবে</t>
+        </is>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>ইতিবাচক</t>
+        </is>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>বিনিয়োগ</t>
+        </is>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>দীর্ঘমেয়াদী</t>
+        </is>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>সুদের</t>
+        </is>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>হ্রাসের</t>
+        </is>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>#11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>বিএনজেড</t>
+        </is>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>নিউজিল্যান্ডের</t>
+        </is>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>হোম</t>
+        </is>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>লোনের</t>
+        </is>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>ওয়েলিংটন</t>
+        </is>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>হারগুলো</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>পুরাতন</t>
+        </is>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>১০.৫</t>
+        </is>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>১০.৭৫</t>
+        </is>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>১০.৯৫</t>
+        </is>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>নিউজিল্যান্ড</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>নির্ধারিত</t>
+        </is>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>দিচ্ছে</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>১১.২৫</t>
+        </is>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>পাইকারি</t>
+        </is>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2024" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>হারে</t>
+        </is>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2025" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>সাড়া</t>
+        </is>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2026" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>খামার</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>প্রদানের</t>
+        </is>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>রাখা</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>পর্যালোচনাধীন</t>
+        </is>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>৬৪</t>
+        </is>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>৪৭৩৪</t>
+        </is>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>৭৪৬</t>
+        </is>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>পাওয়ার</t>
+        </is>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>এনজেড</t>
+        </is>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>ওডিভি</t>
+        </is>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>৫২৪</t>
+        </is>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>তারিখে</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>নেটওয়ার্কের</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>অপ্টিমাইজড</t>
+        </is>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>ডেপ্রিভাল</t>
+        </is>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>ভ্যালু</t>
+        </is>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>৫২৪.২</t>
+        </is>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>নির্ধারণ</t>
+        </is>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>#12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>৪৮৬.৫</t>
+        </is>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>#16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>মূল্যায়নের</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>#18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>আট</t>
+        </is>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>এলাকায়</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>আনুমানিক</t>
+        </is>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>জীবনকাল</t>
+        </is>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>সম্প্রসারণের</t>
+        </is>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>মূল্যকে</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>প্রতিফলিত</t>
+        </is>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>বিদ্যুৎ</t>
+        </is>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>কোম্পানিগুলোর</t>
+        </is>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>পদ্ধতির</t>
+        </is>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>সামঞ্জস্যপূর্ণ</t>
+        </is>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>প্রতিরোধমূলক</t>
+        </is>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>রক্ষণাবেক্ষণ</t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>সরঞ্জাম</t>
+        </is>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>আপগ্রেড</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>ক্ষেত্রে</t>
+        </is>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>কোম্পানিটির</t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>স্তরের</t>
+        </is>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>প্রতিফলন</t>
+        </is>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>প্রকাশনার</t>
+        </is>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>পুনর্মূল্যায়ন</t>
+        </is>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
